--- a/auction data.xlsx
+++ b/auction data.xlsx
@@ -8,14 +8,72 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connorboone/Desktop/econ/github/project/econometrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69B2922B-58A7-1A42-8194-E74B35ED79A5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BF60BB-ECAC-6E4B-99B1-092A04C72397}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="460" windowWidth="25440" windowHeight="14300" activeTab="1" xr2:uid="{6212E484-7553-1441-B8EC-369144F6DFC1}"/>
+    <workbookView xWindow="280" yWindow="480" windowWidth="29140" windowHeight="14300" activeTab="1" xr2:uid="{6212E484-7553-1441-B8EC-369144F6DFC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v5.0" hidden="1">Hoja2!$A$12</definedName>
+    <definedName name="_xlchart.v5.1" hidden="1">Hoja2!$A$13</definedName>
+    <definedName name="_xlchart.v5.10" hidden="1">Hoja2!$A$21</definedName>
+    <definedName name="_xlchart.v5.11" hidden="1">Hoja2!$A$22</definedName>
+    <definedName name="_xlchart.v5.12" hidden="1">Hoja2!$A$23</definedName>
+    <definedName name="_xlchart.v5.13" hidden="1">Hoja2!$A$24</definedName>
+    <definedName name="_xlchart.v5.14" hidden="1">Hoja2!$B$12:$G$12</definedName>
+    <definedName name="_xlchart.v5.15" hidden="1">Hoja2!$B$13:$G$13</definedName>
+    <definedName name="_xlchart.v5.16" hidden="1">Hoja2!$B$14:$G$14</definedName>
+    <definedName name="_xlchart.v5.17" hidden="1">Hoja2!$B$15:$G$15</definedName>
+    <definedName name="_xlchart.v5.18" hidden="1">Hoja2!$B$16:$G$16</definedName>
+    <definedName name="_xlchart.v5.19" hidden="1">Hoja2!$B$17:$G$17</definedName>
+    <definedName name="_xlchart.v5.2" hidden="1">Hoja2!$A$14</definedName>
+    <definedName name="_xlchart.v5.20" hidden="1">Hoja2!$B$18:$G$18</definedName>
+    <definedName name="_xlchart.v5.21" hidden="1">Hoja2!$B$19:$G$19</definedName>
+    <definedName name="_xlchart.v5.22" hidden="1">Hoja2!$B$1:$G$11</definedName>
+    <definedName name="_xlchart.v5.23" hidden="1">Hoja2!$B$20:$G$20</definedName>
+    <definedName name="_xlchart.v5.24" hidden="1">Hoja2!$B$21:$G$21</definedName>
+    <definedName name="_xlchart.v5.25" hidden="1">Hoja2!$B$22:$G$22</definedName>
+    <definedName name="_xlchart.v5.26" hidden="1">Hoja2!$B$23:$G$23</definedName>
+    <definedName name="_xlchart.v5.27" hidden="1">Hoja2!$B$24:$G$24</definedName>
+    <definedName name="_xlchart.v5.28" hidden="1">Hoja2!$A$12</definedName>
+    <definedName name="_xlchart.v5.29" hidden="1">Hoja2!$A$13</definedName>
+    <definedName name="_xlchart.v5.3" hidden="1">Hoja2!$A$15</definedName>
+    <definedName name="_xlchart.v5.30" hidden="1">Hoja2!$A$14</definedName>
+    <definedName name="_xlchart.v5.31" hidden="1">Hoja2!$A$15</definedName>
+    <definedName name="_xlchart.v5.32" hidden="1">Hoja2!$A$16</definedName>
+    <definedName name="_xlchart.v5.33" hidden="1">Hoja2!$A$17</definedName>
+    <definedName name="_xlchart.v5.34" hidden="1">Hoja2!$A$18</definedName>
+    <definedName name="_xlchart.v5.35" hidden="1">Hoja2!$A$19</definedName>
+    <definedName name="_xlchart.v5.36" hidden="1">Hoja2!$A$1:$A$11</definedName>
+    <definedName name="_xlchart.v5.37" hidden="1">Hoja2!$A$20</definedName>
+    <definedName name="_xlchart.v5.38" hidden="1">Hoja2!$A$21</definedName>
+    <definedName name="_xlchart.v5.39" hidden="1">Hoja2!$A$22</definedName>
+    <definedName name="_xlchart.v5.4" hidden="1">Hoja2!$A$16</definedName>
+    <definedName name="_xlchart.v5.40" hidden="1">Hoja2!$A$23</definedName>
+    <definedName name="_xlchart.v5.41" hidden="1">Hoja2!$A$24</definedName>
+    <definedName name="_xlchart.v5.42" hidden="1">Hoja2!$B$12:$G$12</definedName>
+    <definedName name="_xlchart.v5.43" hidden="1">Hoja2!$B$13:$G$13</definedName>
+    <definedName name="_xlchart.v5.44" hidden="1">Hoja2!$B$14:$G$14</definedName>
+    <definedName name="_xlchart.v5.45" hidden="1">Hoja2!$B$15:$G$15</definedName>
+    <definedName name="_xlchart.v5.46" hidden="1">Hoja2!$B$16:$G$16</definedName>
+    <definedName name="_xlchart.v5.47" hidden="1">Hoja2!$B$17:$G$17</definedName>
+    <definedName name="_xlchart.v5.48" hidden="1">Hoja2!$B$18:$G$18</definedName>
+    <definedName name="_xlchart.v5.49" hidden="1">Hoja2!$B$19:$G$19</definedName>
+    <definedName name="_xlchart.v5.5" hidden="1">Hoja2!$A$17</definedName>
+    <definedName name="_xlchart.v5.50" hidden="1">Hoja2!$B$1:$G$11</definedName>
+    <definedName name="_xlchart.v5.51" hidden="1">Hoja2!$B$20:$G$20</definedName>
+    <definedName name="_xlchart.v5.52" hidden="1">Hoja2!$B$21:$G$21</definedName>
+    <definedName name="_xlchart.v5.53" hidden="1">Hoja2!$B$22:$G$22</definedName>
+    <definedName name="_xlchart.v5.54" hidden="1">Hoja2!$B$23:$G$23</definedName>
+    <definedName name="_xlchart.v5.55" hidden="1">Hoja2!$B$24:$G$24</definedName>
+    <definedName name="_xlchart.v5.6" hidden="1">Hoja2!$A$18</definedName>
+    <definedName name="_xlchart.v5.7" hidden="1">Hoja2!$A$19</definedName>
+    <definedName name="_xlchart.v5.8" hidden="1">Hoja2!$A$1:$A$11</definedName>
+    <definedName name="_xlchart.v5.9" hidden="1">Hoja2!$A$20</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>depreciation expense</t>
   </si>
@@ -211,6 +269,24 @@
   </si>
   <si>
     <t>Band plan</t>
+  </si>
+  <si>
+    <t>APT</t>
+  </si>
+  <si>
+    <t>footnotes</t>
+  </si>
+  <si>
+    <t>FCC</t>
+  </si>
+  <si>
+    <t>FCC Plan</t>
+  </si>
+  <si>
+    <t>APT Plan</t>
+  </si>
+  <si>
+    <t>https://www.itu.int/en/ITU-R/seminars/rrs/2014-Americas/forumpresentations/RRS-14-Americas-SUTEL.pdf</t>
   </si>
 </sst>
 </file>
@@ -281,11 +357,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,10 +916,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20CBA61-6DBD-D245-9BCD-1B6A172D04DA}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -854,7 +931,7 @@
     <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -873,128 +950,167 @@
       <c r="F1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/auction data.xlsx
+++ b/auction data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connorboone/Desktop/econ/github/project/econometrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BF60BB-ECAC-6E4B-99B1-092A04C72397}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DFDF6A-1FF1-0B42-B2F0-4FF69E2424C3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="480" windowWidth="29140" windowHeight="14300" activeTab="1" xr2:uid="{6212E484-7553-1441-B8EC-369144F6DFC1}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t>depreciation expense</t>
   </si>
@@ -165,21 +165,6 @@
   </si>
   <si>
     <t>El Salvador</t>
-  </si>
-  <si>
-    <r>
-      <t>Grenada</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF54595D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
   </si>
   <si>
     <t>Guatemala</t>
@@ -288,12 +273,30 @@
   <si>
     <t>https://www.itu.int/en/ITU-R/seminars/rrs/2014-Americas/forumpresentations/RRS-14-Americas-SUTEL.pdf</t>
   </si>
+  <si>
+    <r>
+      <t>Grenada</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -303,26 +306,11 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="10.5"/>
-      <color rgb="FF351C75"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="10.5"/>
-      <color rgb="FF0B0080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF54595D"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -336,16 +324,43 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -353,16 +368,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -919,7 +975,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -932,177 +988,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-    </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>45</v>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="B24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1110,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/auction data.xlsx
+++ b/auction data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connorboone/Desktop/econ/github/project/econometrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DFDF6A-1FF1-0B42-B2F0-4FF69E2424C3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A793A4C-833F-E043-9E6F-4361DE6164FF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="480" windowWidth="29140" windowHeight="14300" activeTab="1" xr2:uid="{6212E484-7553-1441-B8EC-369144F6DFC1}"/>
   </bookViews>
@@ -23,21 +23,21 @@
     <definedName name="_xlchart.v5.11" hidden="1">Hoja2!$A$22</definedName>
     <definedName name="_xlchart.v5.12" hidden="1">Hoja2!$A$23</definedName>
     <definedName name="_xlchart.v5.13" hidden="1">Hoja2!$A$24</definedName>
-    <definedName name="_xlchart.v5.14" hidden="1">Hoja2!$B$12:$G$12</definedName>
-    <definedName name="_xlchart.v5.15" hidden="1">Hoja2!$B$13:$G$13</definedName>
-    <definedName name="_xlchart.v5.16" hidden="1">Hoja2!$B$14:$G$14</definedName>
-    <definedName name="_xlchart.v5.17" hidden="1">Hoja2!$B$15:$G$15</definedName>
-    <definedName name="_xlchart.v5.18" hidden="1">Hoja2!$B$16:$G$16</definedName>
-    <definedName name="_xlchart.v5.19" hidden="1">Hoja2!$B$17:$G$17</definedName>
+    <definedName name="_xlchart.v5.14" hidden="1">Hoja2!$B$12:$H$12</definedName>
+    <definedName name="_xlchart.v5.15" hidden="1">Hoja2!$B$13:$H$13</definedName>
+    <definedName name="_xlchart.v5.16" hidden="1">Hoja2!$B$14:$H$14</definedName>
+    <definedName name="_xlchart.v5.17" hidden="1">Hoja2!$B$15:$H$15</definedName>
+    <definedName name="_xlchart.v5.18" hidden="1">Hoja2!$B$16:$H$16</definedName>
+    <definedName name="_xlchart.v5.19" hidden="1">Hoja2!$B$17:$H$17</definedName>
     <definedName name="_xlchart.v5.2" hidden="1">Hoja2!$A$14</definedName>
-    <definedName name="_xlchart.v5.20" hidden="1">Hoja2!$B$18:$G$18</definedName>
-    <definedName name="_xlchart.v5.21" hidden="1">Hoja2!$B$19:$G$19</definedName>
-    <definedName name="_xlchart.v5.22" hidden="1">Hoja2!$B$1:$G$11</definedName>
-    <definedName name="_xlchart.v5.23" hidden="1">Hoja2!$B$20:$G$20</definedName>
-    <definedName name="_xlchart.v5.24" hidden="1">Hoja2!$B$21:$G$21</definedName>
-    <definedName name="_xlchart.v5.25" hidden="1">Hoja2!$B$22:$G$22</definedName>
-    <definedName name="_xlchart.v5.26" hidden="1">Hoja2!$B$23:$G$23</definedName>
-    <definedName name="_xlchart.v5.27" hidden="1">Hoja2!$B$24:$G$24</definedName>
+    <definedName name="_xlchart.v5.20" hidden="1">Hoja2!$B$18:$H$18</definedName>
+    <definedName name="_xlchart.v5.21" hidden="1">Hoja2!$B$19:$H$19</definedName>
+    <definedName name="_xlchart.v5.22" hidden="1">Hoja2!$B$1:$H$11</definedName>
+    <definedName name="_xlchart.v5.23" hidden="1">Hoja2!$B$20:$H$20</definedName>
+    <definedName name="_xlchart.v5.24" hidden="1">Hoja2!$B$21:$H$21</definedName>
+    <definedName name="_xlchart.v5.25" hidden="1">Hoja2!$B$22:$H$22</definedName>
+    <definedName name="_xlchart.v5.26" hidden="1">Hoja2!$B$23:$H$23</definedName>
+    <definedName name="_xlchart.v5.27" hidden="1">Hoja2!$B$24:$H$24</definedName>
     <definedName name="_xlchart.v5.28" hidden="1">Hoja2!$A$12</definedName>
     <definedName name="_xlchart.v5.29" hidden="1">Hoja2!$A$13</definedName>
     <definedName name="_xlchart.v5.3" hidden="1">Hoja2!$A$15</definedName>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t>depreciation expense</t>
   </si>
@@ -291,11 +291,53 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>N*</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>special conditions</t>
+  </si>
+  <si>
+    <t>service initiated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">undisclosed </t>
+  </si>
+  <si>
+    <t>https://www.urcabahamas.bs/wp-content/uploads/2017/01/Press-Release-Successful-Bidder-in-Phase-II-Spectrum-Auction-Announced.pdf</t>
+  </si>
+  <si>
+    <t>https://www.itu.int/ITU-D/tech/events/2012/Broadcasting_CTU_CBU_Barbados_May12/CountryPlans/Barbados.pdf</t>
+  </si>
+  <si>
+    <t>FCC^3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -405,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -419,6 +461,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -972,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20CBA61-6DBD-D245-9BCD-1B6A172D04DA}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -983,11 +1026,14 @@
     <col min="1" max="1" width="60.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
@@ -1001,67 +1047,124 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2">
+        <v>2012</v>
+      </c>
+      <c r="E2">
+        <v>2014</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3">
+        <v>2015</v>
+      </c>
+      <c r="F3" s="9">
+        <v>62500000</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -1069,7 +1172,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1077,7 +1180,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1085,7 +1188,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1093,7 +1196,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -1101,7 +1204,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
@@ -1109,7 +1212,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
@@ -1117,7 +1220,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
@@ -1125,7 +1228,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
@@ -1221,12 +1324,33 @@
         <v>48</v>
       </c>
     </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/auction data.xlsx
+++ b/auction data.xlsx
@@ -8,73 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connorboone/Desktop/econ/github/project/econometrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A793A4C-833F-E043-9E6F-4361DE6164FF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0EECFB-AF2D-104D-AB58-879397946DE9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="480" windowWidth="29140" windowHeight="14300" activeTab="1" xr2:uid="{6212E484-7553-1441-B8EC-369144F6DFC1}"/>
+    <workbookView xWindow="4420" yWindow="440" windowWidth="21180" windowHeight="14300" activeTab="1" xr2:uid="{6212E484-7553-1441-B8EC-369144F6DFC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v5.0" hidden="1">Hoja2!$A$12</definedName>
-    <definedName name="_xlchart.v5.1" hidden="1">Hoja2!$A$13</definedName>
-    <definedName name="_xlchart.v5.10" hidden="1">Hoja2!$A$21</definedName>
-    <definedName name="_xlchart.v5.11" hidden="1">Hoja2!$A$22</definedName>
-    <definedName name="_xlchart.v5.12" hidden="1">Hoja2!$A$23</definedName>
-    <definedName name="_xlchart.v5.13" hidden="1">Hoja2!$A$24</definedName>
-    <definedName name="_xlchart.v5.14" hidden="1">Hoja2!$B$12:$H$12</definedName>
-    <definedName name="_xlchart.v5.15" hidden="1">Hoja2!$B$13:$H$13</definedName>
-    <definedName name="_xlchart.v5.16" hidden="1">Hoja2!$B$14:$H$14</definedName>
-    <definedName name="_xlchart.v5.17" hidden="1">Hoja2!$B$15:$H$15</definedName>
-    <definedName name="_xlchart.v5.18" hidden="1">Hoja2!$B$16:$H$16</definedName>
-    <definedName name="_xlchart.v5.19" hidden="1">Hoja2!$B$17:$H$17</definedName>
-    <definedName name="_xlchart.v5.2" hidden="1">Hoja2!$A$14</definedName>
-    <definedName name="_xlchart.v5.20" hidden="1">Hoja2!$B$18:$H$18</definedName>
-    <definedName name="_xlchart.v5.21" hidden="1">Hoja2!$B$19:$H$19</definedName>
-    <definedName name="_xlchart.v5.22" hidden="1">Hoja2!$B$1:$H$11</definedName>
-    <definedName name="_xlchart.v5.23" hidden="1">Hoja2!$B$20:$H$20</definedName>
-    <definedName name="_xlchart.v5.24" hidden="1">Hoja2!$B$21:$H$21</definedName>
-    <definedName name="_xlchart.v5.25" hidden="1">Hoja2!$B$22:$H$22</definedName>
-    <definedName name="_xlchart.v5.26" hidden="1">Hoja2!$B$23:$H$23</definedName>
-    <definedName name="_xlchart.v5.27" hidden="1">Hoja2!$B$24:$H$24</definedName>
-    <definedName name="_xlchart.v5.28" hidden="1">Hoja2!$A$12</definedName>
-    <definedName name="_xlchart.v5.29" hidden="1">Hoja2!$A$13</definedName>
-    <definedName name="_xlchart.v5.3" hidden="1">Hoja2!$A$15</definedName>
-    <definedName name="_xlchart.v5.30" hidden="1">Hoja2!$A$14</definedName>
-    <definedName name="_xlchart.v5.31" hidden="1">Hoja2!$A$15</definedName>
-    <definedName name="_xlchart.v5.32" hidden="1">Hoja2!$A$16</definedName>
-    <definedName name="_xlchart.v5.33" hidden="1">Hoja2!$A$17</definedName>
-    <definedName name="_xlchart.v5.34" hidden="1">Hoja2!$A$18</definedName>
-    <definedName name="_xlchart.v5.35" hidden="1">Hoja2!$A$19</definedName>
-    <definedName name="_xlchart.v5.36" hidden="1">Hoja2!$A$1:$A$11</definedName>
-    <definedName name="_xlchart.v5.37" hidden="1">Hoja2!$A$20</definedName>
-    <definedName name="_xlchart.v5.38" hidden="1">Hoja2!$A$21</definedName>
-    <definedName name="_xlchart.v5.39" hidden="1">Hoja2!$A$22</definedName>
-    <definedName name="_xlchart.v5.4" hidden="1">Hoja2!$A$16</definedName>
-    <definedName name="_xlchart.v5.40" hidden="1">Hoja2!$A$23</definedName>
-    <definedName name="_xlchart.v5.41" hidden="1">Hoja2!$A$24</definedName>
-    <definedName name="_xlchart.v5.42" hidden="1">Hoja2!$B$12:$G$12</definedName>
-    <definedName name="_xlchart.v5.43" hidden="1">Hoja2!$B$13:$G$13</definedName>
-    <definedName name="_xlchart.v5.44" hidden="1">Hoja2!$B$14:$G$14</definedName>
-    <definedName name="_xlchart.v5.45" hidden="1">Hoja2!$B$15:$G$15</definedName>
-    <definedName name="_xlchart.v5.46" hidden="1">Hoja2!$B$16:$G$16</definedName>
-    <definedName name="_xlchart.v5.47" hidden="1">Hoja2!$B$17:$G$17</definedName>
-    <definedName name="_xlchart.v5.48" hidden="1">Hoja2!$B$18:$G$18</definedName>
-    <definedName name="_xlchart.v5.49" hidden="1">Hoja2!$B$19:$G$19</definedName>
-    <definedName name="_xlchart.v5.5" hidden="1">Hoja2!$A$17</definedName>
-    <definedName name="_xlchart.v5.50" hidden="1">Hoja2!$B$1:$G$11</definedName>
-    <definedName name="_xlchart.v5.51" hidden="1">Hoja2!$B$20:$G$20</definedName>
-    <definedName name="_xlchart.v5.52" hidden="1">Hoja2!$B$21:$G$21</definedName>
-    <definedName name="_xlchart.v5.53" hidden="1">Hoja2!$B$22:$G$22</definedName>
-    <definedName name="_xlchart.v5.54" hidden="1">Hoja2!$B$23:$G$23</definedName>
-    <definedName name="_xlchart.v5.55" hidden="1">Hoja2!$B$24:$G$24</definedName>
-    <definedName name="_xlchart.v5.6" hidden="1">Hoja2!$A$18</definedName>
-    <definedName name="_xlchart.v5.7" hidden="1">Hoja2!$A$19</definedName>
-    <definedName name="_xlchart.v5.8" hidden="1">Hoja2!$A$1:$A$11</definedName>
-    <definedName name="_xlchart.v5.9" hidden="1">Hoja2!$A$20</definedName>
-  </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="95">
   <si>
     <t>depreciation expense</t>
   </si>
@@ -153,9 +95,6 @@
   </si>
   <si>
     <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Cuba</t>
   </si>
   <si>
     <t>Dominica</t>
@@ -313,15 +252,9 @@
     <t>*</t>
   </si>
   <si>
-    <t>special conditions</t>
-  </si>
-  <si>
     <t>service initiated</t>
   </si>
   <si>
-    <t xml:space="preserve">undisclosed </t>
-  </si>
-  <si>
     <t>https://www.urcabahamas.bs/wp-content/uploads/2017/01/Press-Release-Successful-Bidder-in-Phase-II-Spectrum-Auction-Announced.pdf</t>
   </si>
   <si>
@@ -329,6 +262,127 @@
   </si>
   <si>
     <t>FCC^3</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/news/archive/2014/02/announcement-700-mhz-spectrum-auction-results.html</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Footnotes</t>
+  </si>
+  <si>
+    <t>http://telconomia.com/resultados-de-la-licitacion-ift-3-banda-aws</t>
+  </si>
+  <si>
+    <t>https://www.ic.gc.ca/eic/site/smt-gst.nsf/eng/h_sf10917.html</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>https://halberdbastion.com/intelligence/mobile-networks/btc-bahamas</t>
+  </si>
+  <si>
+    <t>Dummy 4G</t>
+  </si>
+  <si>
+    <t>Dummy THR</t>
+  </si>
+  <si>
+    <t>license validity (years)</t>
+  </si>
+  <si>
+    <t>https://www.prensalibre.com/economia/subasta-de-frecuencia-para-tecnologia-4g-podria-ser-en-2019</t>
+  </si>
+  <si>
+    <t>AWS (1700mhz)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Dummy Auction</t>
+  </si>
+  <si>
+    <t>Cost of 1GB of data-2013</t>
+  </si>
+  <si>
+    <t>Cost of 1GB of data-2012</t>
+  </si>
+  <si>
+    <t>Cost of 1GB of data-2014</t>
+  </si>
+  <si>
+    <t>Cuba xx</t>
+  </si>
+  <si>
+    <t>IN USD</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>PREPAID DATA</t>
+  </si>
+  <si>
+    <t>ON PEAK</t>
+  </si>
+  <si>
+    <t>SOURCE: ITU</t>
+  </si>
+  <si>
+    <t>non blind eye</t>
+  </si>
+  <si>
+    <t>winner takes all</t>
+  </si>
+  <si>
+    <t>auction</t>
+  </si>
+  <si>
+    <t>https://www.fcc.gov/auction/73/factsheet</t>
+  </si>
+  <si>
+    <t>https://www.asep.gob.pa/wp-content/uploads/telecomunicaciones/resoluciones/anno_12035_telco.pdf</t>
+  </si>
+  <si>
+    <r>
+      <t>Countries (North America)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>https://www.fcc.gov/auction/97/factsheet</t>
+  </si>
+  <si>
+    <t>PCS = 698-806MHz</t>
+  </si>
+  <si>
+    <t>https://jis.gov.jm/government-sells-700-mhz-spectrum-digicel/</t>
   </si>
 </sst>
 </file>
@@ -336,9 +390,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -387,8 +441,35 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,20 +482,35 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFD7F7C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -443,31 +539,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFD7F7C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1015,334 +1251,1604 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20CBA61-6DBD-D245-9BCD-1B6A172D04DA}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:AC38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="8" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="16.83203125" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.5" customWidth="1"/>
+    <col min="23" max="23" width="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="22.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="31.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="O1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="36"/>
+      <c r="W1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="29">
+        <v>2012</v>
+      </c>
+      <c r="E2" s="29">
+        <v>2014</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="29">
+        <v>1</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="K2" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="15"/>
+      <c r="N2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="22">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="AA2" s="22">
+        <v>62.59</v>
+      </c>
+      <c r="AB2" s="22">
+        <v>27.78</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="29">
+        <v>2012</v>
+      </c>
+      <c r="E3" s="29">
+        <v>2014</v>
+      </c>
+      <c r="F3" s="28">
+        <v>62500000</v>
+      </c>
+      <c r="G3" s="29">
+        <v>1</v>
+      </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="15">
+        <v>0</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="33">
+        <v>2014</v>
+      </c>
+      <c r="R3" s="33"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="29">
+        <v>1</v>
+      </c>
+      <c r="U3" s="33"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA3" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB3" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC3" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="29">
+        <v>2013</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="28">
+        <v>25000000</v>
+      </c>
+      <c r="G4" s="29">
+        <v>1</v>
+      </c>
+      <c r="H4" s="29">
+        <v>15</v>
+      </c>
+      <c r="I4" s="29">
+        <v>8</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="15">
+        <v>1</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="29">
+        <v>5</v>
+      </c>
+      <c r="X4" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="22">
+        <v>19.5</v>
+      </c>
+      <c r="AA4" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB4" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC4" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="C5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29">
+        <v>2015</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="K5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="15"/>
+      <c r="N5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA5" s="22">
+        <v>15</v>
+      </c>
+      <c r="AB5" s="22">
+        <v>15</v>
+      </c>
+      <c r="AC5" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="29">
+        <v>2014</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="28">
+        <v>5270000000</v>
+      </c>
+      <c r="G6" s="29">
+        <v>8</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29">
+        <v>4</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" s="15">
+        <v>1</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q6" s="33">
+        <v>2015</v>
+      </c>
+      <c r="R6" s="33"/>
+      <c r="S6" s="28">
+        <v>2109147421</v>
+      </c>
+      <c r="T6" s="29">
         <v>39</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="U6" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" s="37"/>
+      <c r="W6" s="29">
+        <v>10</v>
+      </c>
+      <c r="X6" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="22">
+        <v>40.869999999999997</v>
+      </c>
+      <c r="AA6" s="22">
+        <v>40.869999999999997</v>
+      </c>
+      <c r="AB6" s="22">
+        <v>113.09</v>
+      </c>
+      <c r="AC6" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29">
+        <v>1</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA7" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB7" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC7" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="L8" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="18"/>
+      <c r="N8" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA8" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB8" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC8" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA9" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB9" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC9" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="M10" s="15">
+        <v>0</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="22">
+        <v>43.12</v>
+      </c>
+      <c r="AA10" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB10" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC10" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="M11" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q11" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="R11" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="S11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="T11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="U11" s="33"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="22">
+        <v>22</v>
+      </c>
+      <c r="AA11" s="22">
+        <v>28</v>
+      </c>
+      <c r="AB11" s="22">
+        <v>15</v>
+      </c>
+      <c r="AC11" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA12" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB12" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC12" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="M13" s="15">
+        <v>0</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="33">
+        <v>2018</v>
+      </c>
+      <c r="R13" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="S13" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="T13" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="U13" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="V13" s="37"/>
+      <c r="W13" s="29">
+        <v>15</v>
+      </c>
+      <c r="X13" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="22">
+        <v>19.27</v>
+      </c>
+      <c r="AA13" s="22">
+        <v>18.96</v>
+      </c>
+      <c r="AB13" s="22">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="AC13" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="22">
+        <v>22.12</v>
+      </c>
+      <c r="AA14" s="22">
+        <v>23.01</v>
+      </c>
+      <c r="AB14" s="22">
+        <v>19.07</v>
+      </c>
+      <c r="AC14" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="22">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="AA15" s="22">
+        <v>14.76</v>
+      </c>
+      <c r="AB15" s="22">
+        <v>15.38</v>
+      </c>
+      <c r="AC15" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="22">
+        <v>27.04</v>
+      </c>
+      <c r="AA16" s="22">
+        <v>29.93</v>
+      </c>
+      <c r="AB16" s="22">
+        <v>19.72</v>
+      </c>
+      <c r="AC16" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="29">
+        <v>2016</v>
+      </c>
+      <c r="E17" s="29">
+        <v>2018</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29">
+        <v>20</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="M17" s="15">
+        <v>0</v>
+      </c>
+      <c r="N17" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q17" s="33">
+        <v>2016</v>
+      </c>
+      <c r="R17" s="33">
+        <v>2017</v>
+      </c>
+      <c r="S17" s="28">
+        <v>173010000</v>
+      </c>
+      <c r="T17" s="29">
+        <v>11</v>
+      </c>
+      <c r="U17" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="V17" s="37"/>
+      <c r="W17" s="29">
+        <v>15</v>
+      </c>
+      <c r="X17" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="22">
+        <v>22.49</v>
+      </c>
+      <c r="AA17" s="22">
+        <v>23.41</v>
+      </c>
+      <c r="AB17" s="22">
+        <v>22.7</v>
+      </c>
+      <c r="AC17" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="22">
+        <v>17.72</v>
+      </c>
+      <c r="AA18" s="22">
+        <v>18.61</v>
+      </c>
+      <c r="AB18" s="22">
+        <v>15.88</v>
+      </c>
+      <c r="AC18" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="29">
+        <v>2008</v>
+      </c>
+      <c r="E19" s="29">
+        <v>2019</v>
+      </c>
+      <c r="F19" s="23">
+        <v>22570526</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29">
+        <v>7</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0</v>
+      </c>
+      <c r="N19" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="22">
+        <v>19.95</v>
+      </c>
+      <c r="AA19" s="22">
+        <v>14.99</v>
+      </c>
+      <c r="AB19" s="22">
+        <v>14.99</v>
+      </c>
+      <c r="AC19" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="22">
+        <v>29.39</v>
+      </c>
+      <c r="AA20" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB20" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC20" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA21" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB21" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC21" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="22">
+        <v>29.39</v>
+      </c>
+      <c r="AA22" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB22" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC22" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="22">
+        <v>23.26</v>
+      </c>
+      <c r="AA23" s="22">
+        <v>23.13</v>
+      </c>
+      <c r="AB23" s="22">
+        <v>15.38</v>
+      </c>
+      <c r="AC23" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="29">
+        <v>2008</v>
+      </c>
+      <c r="E24" s="29">
+        <v>2014</v>
+      </c>
+      <c r="F24" s="28">
+        <v>19120378000</v>
+      </c>
+      <c r="G24" s="29">
+        <v>1090</v>
+      </c>
+      <c r="H24" s="29">
+        <v>10</v>
+      </c>
+      <c r="I24" s="29">
+        <v>6</v>
+      </c>
+      <c r="M24" s="15">
+        <v>1</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q24" s="33">
+        <v>2015</v>
+      </c>
+      <c r="R24" s="33">
+        <v>2016</v>
+      </c>
+      <c r="S24" s="28">
+        <v>44899451600</v>
+      </c>
+      <c r="T24" s="29">
+        <v>1614</v>
+      </c>
+      <c r="U24" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="V24" s="37"/>
+      <c r="W24" s="29">
+        <v>10</v>
+      </c>
+      <c r="X24" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="29">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="22">
+        <v>21.77</v>
+      </c>
+      <c r="AA24" s="22">
+        <v>21.77</v>
+      </c>
+      <c r="AB24" s="22">
+        <v>21.77</v>
+      </c>
+      <c r="AC24" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="N25" s="3"/>
+      <c r="S25" s="8"/>
+      <c r="Z25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA25" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB25" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="Z26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA26" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2">
-        <v>2012</v>
-      </c>
-      <c r="E2">
-        <v>2014</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3">
-        <v>2015</v>
-      </c>
-      <c r="F3" s="9">
-        <v>62500000</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="O27" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="Z27" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O29" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="O30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="O31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
@@ -1350,10 +2856,54 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B26:C26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>